--- a/Experimental Design/Design.xlsx
+++ b/Experimental Design/Design.xlsx
@@ -14,35 +14,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>Token</t>
   </si>
   <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Prefix2</t>
+  </si>
+  <si>
+    <t>Prefix1</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Suffix1</t>
+  </si>
+  <si>
+    <t>Suffix2</t>
+  </si>
+  <si>
     <t>Monomorpheme</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Prefix2</t>
-  </si>
-  <si>
-    <t>Prefix1</t>
-  </si>
-  <si>
-    <t>Root</t>
-  </si>
-  <si>
-    <t>Suffix1</t>
-  </si>
-  <si>
-    <t>Suffix2</t>
-  </si>
-  <si>
-    <t>Wordlength</t>
-  </si>
-  <si>
     <t>MonoPrefix2</t>
   </si>
   <si>
@@ -88,46 +85,25 @@
     <t>ChangedIndexS2</t>
   </si>
   <si>
-    <t>unagu</t>
-  </si>
-  <si>
-    <t>elhoful</t>
-  </si>
-  <si>
-    <t>detemion</t>
-  </si>
-  <si>
-    <t>unprehog</t>
-  </si>
-  <si>
-    <t>jawdfulable</t>
-  </si>
-  <si>
-    <t>unotodioner</t>
-  </si>
-  <si>
-    <t>preingoteful</t>
-  </si>
-  <si>
-    <t>nuuga</t>
-  </si>
-  <si>
-    <t>olehufl</t>
-  </si>
-  <si>
-    <t>edemtoin</t>
-  </si>
-  <si>
-    <t>nueprhgo</t>
-  </si>
-  <si>
-    <t>dwajlufaebl</t>
-  </si>
-  <si>
-    <t>nudtooniore</t>
-  </si>
-  <si>
-    <t>rpenitegoluf</t>
+    <t>unyers</t>
+  </si>
+  <si>
+    <t>ateion</t>
+  </si>
+  <si>
+    <t>undidion</t>
+  </si>
+  <si>
+    <t>predeemc</t>
+  </si>
+  <si>
+    <t>yesableful</t>
+  </si>
+  <si>
+    <t>deyersioner</t>
+  </si>
+  <si>
+    <t>preinenhaer</t>
   </si>
   <si>
     <t>pr</t>
@@ -151,166 +127,184 @@
     <t>pprs</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>un</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>de</t>
   </si>
   <si>
     <t>in</t>
   </si>
   <si>
-    <t>agu</t>
-  </si>
-  <si>
-    <t>elho</t>
-  </si>
-  <si>
-    <t>tem</t>
-  </si>
-  <si>
-    <t>hog</t>
-  </si>
-  <si>
-    <t>jawd</t>
-  </si>
-  <si>
-    <t>otod</t>
-  </si>
-  <si>
-    <t>gote</t>
+    <t>yers</t>
+  </si>
+  <si>
+    <t>ate</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>emc</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>enha</t>
+  </si>
+  <si>
+    <t>ion</t>
+  </si>
+  <si>
+    <t>able</t>
+  </si>
+  <si>
+    <t>er</t>
   </si>
   <si>
     <t>ful</t>
   </si>
   <si>
-    <t>ion</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>er</t>
+    <t>nuysre</t>
+  </si>
+  <si>
+    <t>eatnoi</t>
+  </si>
+  <si>
+    <t>nuddioin</t>
+  </si>
+  <si>
+    <t>erpedcme</t>
+  </si>
+  <si>
+    <t>yseebalufl</t>
+  </si>
+  <si>
+    <t>edseryonire</t>
+  </si>
+  <si>
+    <t>repnihaenre</t>
+  </si>
+  <si>
+    <t>erp</t>
+  </si>
+  <si>
+    <t>rep</t>
   </si>
   <si>
     <t>nu</t>
   </si>
   <si>
-    <t>rpe</t>
-  </si>
-  <si>
     <t>ed</t>
   </si>
   <si>
-    <t>epr</t>
-  </si>
-  <si>
     <t>ni</t>
   </si>
   <si>
-    <t>uga</t>
-  </si>
-  <si>
-    <t>oleh</t>
-  </si>
-  <si>
-    <t>emt</t>
-  </si>
-  <si>
-    <t>hgo</t>
-  </si>
-  <si>
-    <t>dwaj</t>
-  </si>
-  <si>
-    <t>dtoo</t>
-  </si>
-  <si>
-    <t>tego</t>
+    <t>ysre</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>ddi</t>
+  </si>
+  <si>
+    <t>cme</t>
+  </si>
+  <si>
+    <t>yse</t>
+  </si>
+  <si>
+    <t>sery</t>
+  </si>
+  <si>
+    <t>haen</t>
+  </si>
+  <si>
+    <t>noi</t>
+  </si>
+  <si>
+    <t>oin</t>
+  </si>
+  <si>
+    <t>ebal</t>
+  </si>
+  <si>
+    <t>oni</t>
+  </si>
+  <si>
+    <t>re</t>
   </si>
   <si>
     <t>ufl</t>
   </si>
   <si>
-    <t>oin</t>
-  </si>
-  <si>
-    <t>luf</t>
-  </si>
-  <si>
-    <t>nio</t>
-  </si>
-  <si>
-    <t>aebl</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>ujprehog</t>
-  </si>
-  <si>
-    <t>sreingoteful</t>
-  </si>
-  <si>
-    <t>uyagu</t>
-  </si>
-  <si>
-    <t>setemion</t>
-  </si>
-  <si>
-    <t>unprihog</t>
-  </si>
-  <si>
-    <t>urotodioner</t>
-  </si>
-  <si>
-    <t>preiygoteful</t>
-  </si>
-  <si>
-    <t>unegu</t>
-  </si>
-  <si>
-    <t>elhaful</t>
-  </si>
-  <si>
-    <t>deterion</t>
-  </si>
-  <si>
-    <t>unprehot</t>
-  </si>
-  <si>
-    <t>rawdfulable</t>
-  </si>
-  <si>
-    <t>unototioner</t>
-  </si>
-  <si>
-    <t>preingodeful</t>
-  </si>
-  <si>
-    <t>elhofum</t>
-  </si>
-  <si>
-    <t>detemiin</t>
-  </si>
-  <si>
-    <t>jawdsulable</t>
-  </si>
-  <si>
-    <t>unotodooner</t>
-  </si>
-  <si>
-    <t>preingotehul</t>
-  </si>
-  <si>
-    <t>jawdfulablu</t>
-  </si>
-  <si>
-    <t>unotodionar</t>
+    <t>tredeemc</t>
+  </si>
+  <si>
+    <t>proinenhaer</t>
+  </si>
+  <si>
+    <t>enyers</t>
+  </si>
+  <si>
+    <t>urdidion</t>
+  </si>
+  <si>
+    <t>predoemc</t>
+  </si>
+  <si>
+    <t>peyersioner</t>
+  </si>
+  <si>
+    <t>preimenhaer</t>
+  </si>
+  <si>
+    <t>unmers</t>
+  </si>
+  <si>
+    <t>afeion</t>
+  </si>
+  <si>
+    <t>undodion</t>
+  </si>
+  <si>
+    <t>predeamc</t>
+  </si>
+  <si>
+    <t>resableful</t>
+  </si>
+  <si>
+    <t>deyarsioner</t>
+  </si>
+  <si>
+    <t>preinonhaer</t>
+  </si>
+  <si>
+    <t>ateoon</t>
+  </si>
+  <si>
+    <t>undideon</t>
+  </si>
+  <si>
+    <t>yesabreful</t>
+  </si>
+  <si>
+    <t>deyersianer</t>
+  </si>
+  <si>
+    <t>preinenhaem</t>
+  </si>
+  <si>
+    <t>yesablefun</t>
+  </si>
+  <si>
+    <t>deyersionir</t>
   </si>
 </sst>
 </file>
@@ -668,13 +662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,358 +738,362 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
         <v>65</v>
       </c>
-      <c r="P2" t="s">
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="14:23">
+      <c r="P17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>90</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="14:23">
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>91</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="14:23">
+      <c r="N19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2">
+      <c r="P19" t="s">
+        <v>86</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>1</v>
       </c>
-      <c r="V2">
+      <c r="U19">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" t="s">
+    <row r="20" spans="14:23">
+      <c r="P20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" t="s">
         <v>92</v>
       </c>
-      <c r="V3">
-        <v>3</v>
-      </c>
-      <c r="W3">
+      <c r="R20" t="s">
+        <v>95</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="W20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="14:23">
+      <c r="O21" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="P21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" t="s">
         <v>93</v>
       </c>
-      <c r="U4">
+      <c r="R21" t="s">
+        <v>96</v>
+      </c>
+      <c r="T21">
         <v>0</v>
       </c>
-      <c r="V4">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="14:23">
+      <c r="N22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>94</v>
+      </c>
+      <c r="S22">
         <v>2</v>
       </c>
-      <c r="W4">
+      <c r="T22">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T5">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>1</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>89</v>
-      </c>
-      <c r="R6" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" t="s">
-        <v>97</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>90</v>
-      </c>
-      <c r="R7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Design/Design.xlsx
+++ b/Experimental Design/Design.xlsx
@@ -85,25 +85,25 @@
     <t>ChangedIndexS2</t>
   </si>
   <si>
-    <t>unyers</t>
-  </si>
-  <si>
-    <t>ateion</t>
-  </si>
-  <si>
-    <t>undidion</t>
-  </si>
-  <si>
-    <t>predeemc</t>
-  </si>
-  <si>
-    <t>yesableful</t>
-  </si>
-  <si>
-    <t>deyersioner</t>
-  </si>
-  <si>
-    <t>preinenhaer</t>
+    <t>inkab</t>
+  </si>
+  <si>
+    <t>tamful</t>
+  </si>
+  <si>
+    <t>inohotful</t>
+  </si>
+  <si>
+    <t>undetede</t>
+  </si>
+  <si>
+    <t>eltioner</t>
+  </si>
+  <si>
+    <t>ingegefulable</t>
+  </si>
+  <si>
+    <t>depreateion</t>
   </si>
   <si>
     <t>pr</t>
@@ -127,184 +127,184 @@
     <t>pprs</t>
   </si>
   <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
     <t>pre</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>yers</t>
+    <t>kab</t>
+  </si>
+  <si>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>ohot</t>
+  </si>
+  <si>
+    <t>tede</t>
+  </si>
+  <si>
+    <t>elt</t>
+  </si>
+  <si>
+    <t>gege</t>
   </si>
   <si>
     <t>ate</t>
   </si>
   <si>
-    <t>did</t>
-  </si>
-  <si>
-    <t>emc</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>enha</t>
+    <t>ful</t>
   </si>
   <si>
     <t>ion</t>
   </si>
   <si>
+    <t>er</t>
+  </si>
+  <si>
     <t>able</t>
   </si>
   <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>ful</t>
-  </si>
-  <si>
-    <t>nuysre</t>
-  </si>
-  <si>
-    <t>eatnoi</t>
-  </si>
-  <si>
-    <t>nuddioin</t>
-  </si>
-  <si>
-    <t>erpedcme</t>
-  </si>
-  <si>
-    <t>yseebalufl</t>
-  </si>
-  <si>
-    <t>edseryonire</t>
-  </si>
-  <si>
-    <t>repnihaenre</t>
-  </si>
-  <si>
-    <t>erp</t>
+    <t>nibak</t>
+  </si>
+  <si>
+    <t>mtaulf</t>
+  </si>
+  <si>
+    <t>nithooufl</t>
+  </si>
+  <si>
+    <t>nuededet</t>
+  </si>
+  <si>
+    <t>telnoire</t>
+  </si>
+  <si>
+    <t>nieggeuflebla</t>
+  </si>
+  <si>
+    <t>edrepetaoni</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>ni</t>
   </si>
   <si>
     <t>rep</t>
   </si>
   <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>ysre</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>ddi</t>
-  </si>
-  <si>
-    <t>cme</t>
-  </si>
-  <si>
-    <t>yse</t>
-  </si>
-  <si>
-    <t>sery</t>
-  </si>
-  <si>
-    <t>haen</t>
+    <t>bak</t>
+  </si>
+  <si>
+    <t>mta</t>
+  </si>
+  <si>
+    <t>thoo</t>
+  </si>
+  <si>
+    <t>edet</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>egge</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>ulf</t>
+  </si>
+  <si>
+    <t>ufl</t>
   </si>
   <si>
     <t>noi</t>
   </si>
   <si>
-    <t>oin</t>
-  </si>
-  <si>
-    <t>ebal</t>
-  </si>
-  <si>
     <t>oni</t>
   </si>
   <si>
     <t>re</t>
   </si>
   <si>
-    <t>ufl</t>
-  </si>
-  <si>
-    <t>tredeemc</t>
-  </si>
-  <si>
-    <t>proinenhaer</t>
-  </si>
-  <si>
-    <t>enyers</t>
-  </si>
-  <si>
-    <t>urdidion</t>
-  </si>
-  <si>
-    <t>predoemc</t>
-  </si>
-  <si>
-    <t>peyersioner</t>
-  </si>
-  <si>
-    <t>preimenhaer</t>
-  </si>
-  <si>
-    <t>unmers</t>
-  </si>
-  <si>
-    <t>afeion</t>
-  </si>
-  <si>
-    <t>undodion</t>
-  </si>
-  <si>
-    <t>predeamc</t>
-  </si>
-  <si>
-    <t>resableful</t>
-  </si>
-  <si>
-    <t>deyarsioner</t>
-  </si>
-  <si>
-    <t>preinonhaer</t>
-  </si>
-  <si>
-    <t>ateoon</t>
-  </si>
-  <si>
-    <t>undideon</t>
-  </si>
-  <si>
-    <t>yesabreful</t>
-  </si>
-  <si>
-    <t>deyersianer</t>
-  </si>
-  <si>
-    <t>preinenhaem</t>
-  </si>
-  <si>
-    <t>yesablefun</t>
-  </si>
-  <si>
-    <t>deyersionir</t>
+    <t>ebla</t>
+  </si>
+  <si>
+    <t>uldetede</t>
+  </si>
+  <si>
+    <t>tepreateion</t>
+  </si>
+  <si>
+    <t>ilkab</t>
+  </si>
+  <si>
+    <t>imohotful</t>
+  </si>
+  <si>
+    <t>unhetede</t>
+  </si>
+  <si>
+    <t>irgegefulable</t>
+  </si>
+  <si>
+    <t>depriateion</t>
+  </si>
+  <si>
+    <t>intab</t>
+  </si>
+  <si>
+    <t>tawful</t>
+  </si>
+  <si>
+    <t>inohodful</t>
+  </si>
+  <si>
+    <t>undepede</t>
+  </si>
+  <si>
+    <t>ewtioner</t>
+  </si>
+  <si>
+    <t>ingigefulable</t>
+  </si>
+  <si>
+    <t>depreaceion</t>
+  </si>
+  <si>
+    <t>tamfal</t>
+  </si>
+  <si>
+    <t>inohotfur</t>
+  </si>
+  <si>
+    <t>eltiorer</t>
+  </si>
+  <si>
+    <t>ingegefunable</t>
+  </si>
+  <si>
+    <t>depreateiom</t>
+  </si>
+  <si>
+    <t>eltionen</t>
+  </si>
+  <si>
+    <t>ingegefulatle</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,10 +747,31 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -764,7 +785,28 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -775,13 +817,43 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,10 +867,40 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -812,10 +914,40 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" t="s">
+        <v>95</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -829,13 +961,52 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" t="s">
+        <v>96</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -846,254 +1017,55 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
         <v>73</v>
       </c>
-      <c r="M14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="O16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" t="s">
-        <v>83</v>
-      </c>
-      <c r="T16">
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8">
         <v>0</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="14:23">
-      <c r="P17" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U17">
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
         <v>1</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="14:23">
-      <c r="O18" t="s">
-        <v>79</v>
-      </c>
-      <c r="P18" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="14:23">
-      <c r="N19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" t="s">
-        <v>86</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="14:23">
-      <c r="P20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>92</v>
-      </c>
-      <c r="R20" t="s">
-        <v>95</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="V8">
         <v>2</v>
-      </c>
-      <c r="W20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="14:23">
-      <c r="O21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>93</v>
-      </c>
-      <c r="R21" t="s">
-        <v>96</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="14:23">
-      <c r="N22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O22" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>94</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Design/Design.xlsx
+++ b/Experimental Design/Design.xlsx
@@ -8,13 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
+    <sheet name="Prefixes" sheetId="2" r:id="rId2"/>
+    <sheet name="Roots" sheetId="3" r:id="rId3"/>
+    <sheet name="Suffixes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
   <si>
     <t>Token</t>
   </si>
@@ -85,25 +88,25 @@
     <t>ChangedIndexS2</t>
   </si>
   <si>
-    <t>inkab</t>
-  </si>
-  <si>
-    <t>tamful</t>
-  </si>
-  <si>
-    <t>inohotful</t>
-  </si>
-  <si>
-    <t>undetede</t>
-  </si>
-  <si>
-    <t>eltioner</t>
-  </si>
-  <si>
-    <t>ingegefulable</t>
-  </si>
-  <si>
-    <t>depreateion</t>
+    <t>deret</t>
+  </si>
+  <si>
+    <t>efition</t>
+  </si>
+  <si>
+    <t>preretion</t>
+  </si>
+  <si>
+    <t>predeervo</t>
+  </si>
+  <si>
+    <t>hagfulable</t>
+  </si>
+  <si>
+    <t>inhipoioner</t>
+  </si>
+  <si>
+    <t>undeadeful</t>
   </si>
   <si>
     <t>pr</t>
@@ -127,6 +130,9 @@
     <t>pprs</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>un</t>
   </si>
   <si>
@@ -136,61 +142,58 @@
     <t>in</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>kab</t>
-  </si>
-  <si>
-    <t>tam</t>
-  </si>
-  <si>
-    <t>ohot</t>
-  </si>
-  <si>
-    <t>tede</t>
-  </si>
-  <si>
-    <t>elt</t>
-  </si>
-  <si>
-    <t>gege</t>
-  </si>
-  <si>
-    <t>ate</t>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>efit</t>
+  </si>
+  <si>
+    <t>ervo</t>
+  </si>
+  <si>
+    <t>hag</t>
+  </si>
+  <si>
+    <t>hipo</t>
+  </si>
+  <si>
+    <t>ade</t>
+  </si>
+  <si>
+    <t>ion</t>
   </si>
   <si>
     <t>ful</t>
   </si>
   <si>
-    <t>ion</t>
+    <t>able</t>
   </si>
   <si>
     <t>er</t>
   </si>
   <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>nibak</t>
-  </si>
-  <si>
-    <t>mtaulf</t>
-  </si>
-  <si>
-    <t>nithooufl</t>
-  </si>
-  <si>
-    <t>nuededet</t>
-  </si>
-  <si>
-    <t>telnoire</t>
-  </si>
-  <si>
-    <t>nieggeuflebla</t>
-  </si>
-  <si>
-    <t>edrepetaoni</t>
+    <t>edtre</t>
+  </si>
+  <si>
+    <t>iftenoi</t>
+  </si>
+  <si>
+    <t>repetrino</t>
+  </si>
+  <si>
+    <t>erpedvoer</t>
+  </si>
+  <si>
+    <t>aghfluaebl</t>
+  </si>
+  <si>
+    <t>niophionire</t>
+  </si>
+  <si>
+    <t>nuedeadluf</t>
+  </si>
+  <si>
+    <t>erp</t>
   </si>
   <si>
     <t>nu</t>
@@ -199,112 +202,154 @@
     <t>ed</t>
   </si>
   <si>
+    <t>rep</t>
+  </si>
+  <si>
     <t>ni</t>
   </si>
   <si>
-    <t>rep</t>
-  </si>
-  <si>
-    <t>bak</t>
-  </si>
-  <si>
-    <t>mta</t>
-  </si>
-  <si>
-    <t>thoo</t>
-  </si>
-  <si>
-    <t>edet</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>egge</t>
-  </si>
-  <si>
-    <t>eta</t>
-  </si>
-  <si>
-    <t>ulf</t>
-  </si>
-  <si>
-    <t>ufl</t>
+    <t>tre</t>
+  </si>
+  <si>
+    <t>ifte</t>
+  </si>
+  <si>
+    <t>etr</t>
+  </si>
+  <si>
+    <t>voer</t>
+  </si>
+  <si>
+    <t>agh</t>
+  </si>
+  <si>
+    <t>ophi</t>
+  </si>
+  <si>
+    <t>ead</t>
   </si>
   <si>
     <t>noi</t>
   </si>
   <si>
+    <t>ino</t>
+  </si>
+  <si>
+    <t>flu</t>
+  </si>
+  <si>
     <t>oni</t>
   </si>
   <si>
+    <t>luf</t>
+  </si>
+  <si>
+    <t>aebl</t>
+  </si>
+  <si>
     <t>re</t>
   </si>
   <si>
-    <t>ebla</t>
-  </si>
-  <si>
-    <t>uldetede</t>
-  </si>
-  <si>
-    <t>tepreateion</t>
-  </si>
-  <si>
-    <t>ilkab</t>
-  </si>
-  <si>
-    <t>imohotful</t>
-  </si>
-  <si>
-    <t>unhetede</t>
-  </si>
-  <si>
-    <t>irgegefulable</t>
-  </si>
-  <si>
-    <t>depriateion</t>
-  </si>
-  <si>
-    <t>intab</t>
-  </si>
-  <si>
-    <t>tawful</t>
-  </si>
-  <si>
-    <t>inohodful</t>
-  </si>
-  <si>
-    <t>undepede</t>
-  </si>
-  <si>
-    <t>ewtioner</t>
-  </si>
-  <si>
-    <t>ingigefulable</t>
-  </si>
-  <si>
-    <t>depreaceion</t>
-  </si>
-  <si>
-    <t>tamfal</t>
-  </si>
-  <si>
-    <t>inohotfur</t>
-  </si>
-  <si>
-    <t>eltiorer</t>
-  </si>
-  <si>
-    <t>ingegefunable</t>
-  </si>
-  <si>
-    <t>depreateiom</t>
-  </si>
-  <si>
-    <t>eltionen</t>
-  </si>
-  <si>
-    <t>ingegefulatle</t>
+    <t>dredeervo</t>
+  </si>
+  <si>
+    <t>urdeadeful</t>
+  </si>
+  <si>
+    <t>diret</t>
+  </si>
+  <si>
+    <t>kreretion</t>
+  </si>
+  <si>
+    <t>predoervo</t>
+  </si>
+  <si>
+    <t>iwhipoioner</t>
+  </si>
+  <si>
+    <t>unduadeful</t>
+  </si>
+  <si>
+    <t>dewet</t>
+  </si>
+  <si>
+    <t>esition</t>
+  </si>
+  <si>
+    <t>prerepion</t>
+  </si>
+  <si>
+    <t>predeervu</t>
+  </si>
+  <si>
+    <t>hatfulable</t>
+  </si>
+  <si>
+    <t>inhipeioner</t>
+  </si>
+  <si>
+    <t>undeideful</t>
+  </si>
+  <si>
+    <t>efitaon</t>
+  </si>
+  <si>
+    <t>preretiun</t>
+  </si>
+  <si>
+    <t>hagfumable</t>
+  </si>
+  <si>
+    <t>inhipoeoner</t>
+  </si>
+  <si>
+    <t>undeadefel</t>
+  </si>
+  <si>
+    <t>hagfulabre</t>
+  </si>
+  <si>
+    <t>inhipoionen</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>PrefixPOS</t>
+  </si>
+  <si>
+    <t>PrefixFrequency</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>dedod</t>
+  </si>
+  <si>
+    <t>ert</t>
+  </si>
+  <si>
+    <t>lerh</t>
+  </si>
+  <si>
+    <t>xul</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>SuffixPOS</t>
+  </si>
+  <si>
+    <t>SuffixFrequency</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>adjective</t>
   </si>
 </sst>
 </file>
@@ -753,19 +798,19 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
         <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -785,10 +830,10 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>64</v>
@@ -797,16 +842,16 @@
         <v>70</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -817,16 +862,16 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -838,22 +883,22 @@
         <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,16 +912,16 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
         <v>60</v>
@@ -885,22 +930,22 @@
         <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -911,16 +956,16 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
         <v>67</v>
@@ -929,25 +974,25 @@
         <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6">
         <v>2</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -958,52 +1003,52 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
         <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1020,52 +1065,256 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
         <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>62</v>
       </c>
       <c r="K8" t="s">
         <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
+      <c r="V8">
         <v>1</v>
       </c>
-      <c r="V8">
-        <v>2</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Design/Design.xlsx
+++ b/Experimental Design/Design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
   <si>
     <t>Token</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Suffix2</t>
   </si>
   <si>
+    <t>Wordlength</t>
+  </si>
+  <si>
     <t>Monomorpheme</t>
   </si>
   <si>
@@ -88,25 +91,25 @@
     <t>ChangedIndexS2</t>
   </si>
   <si>
-    <t>deret</t>
-  </si>
-  <si>
-    <t>efition</t>
-  </si>
-  <si>
-    <t>preretion</t>
-  </si>
-  <si>
-    <t>predeervo</t>
-  </si>
-  <si>
-    <t>hagfulable</t>
-  </si>
-  <si>
-    <t>inhipoioner</t>
-  </si>
-  <si>
-    <t>undeadeful</t>
+    <t>unakeh</t>
+  </si>
+  <si>
+    <t>imfeer</t>
+  </si>
+  <si>
+    <t>preumtful</t>
+  </si>
+  <si>
+    <t>inunpit</t>
+  </si>
+  <si>
+    <t>agafulable</t>
+  </si>
+  <si>
+    <t>dewuyserion</t>
+  </si>
+  <si>
+    <t>predeimfeable</t>
   </si>
   <si>
     <t>pr</t>
@@ -130,6 +133,12 @@
     <t>pprs</t>
   </si>
   <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
     <t>pre</t>
   </si>
   <si>
@@ -139,178 +148,178 @@
     <t>de</t>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>ret</t>
-  </si>
-  <si>
-    <t>efit</t>
-  </si>
-  <si>
-    <t>ervo</t>
-  </si>
-  <si>
-    <t>hag</t>
-  </si>
-  <si>
-    <t>hipo</t>
-  </si>
-  <si>
-    <t>ade</t>
+    <t>akeh</t>
+  </si>
+  <si>
+    <t>imfe</t>
+  </si>
+  <si>
+    <t>umt</t>
+  </si>
+  <si>
+    <t>pit</t>
+  </si>
+  <si>
+    <t>aga</t>
+  </si>
+  <si>
+    <t>wuys</t>
+  </si>
+  <si>
+    <t>pipeg</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>ful</t>
+  </si>
+  <si>
+    <t>able</t>
   </si>
   <si>
     <t>ion</t>
   </si>
   <si>
-    <t>ful</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>edtre</t>
-  </si>
-  <si>
-    <t>iftenoi</t>
-  </si>
-  <si>
-    <t>repetrino</t>
-  </si>
-  <si>
-    <t>erpedvoer</t>
-  </si>
-  <si>
-    <t>aghfluaebl</t>
-  </si>
-  <si>
-    <t>niophionire</t>
-  </si>
-  <si>
-    <t>nuedeadluf</t>
-  </si>
-  <si>
-    <t>erp</t>
+    <t>nuehka</t>
+  </si>
+  <si>
+    <t>efimre</t>
+  </si>
+  <si>
+    <t>reptmuulf</t>
+  </si>
+  <si>
+    <t>ninupti</t>
+  </si>
+  <si>
+    <t>gaaulfelab</t>
+  </si>
+  <si>
+    <t>edswuyreoni</t>
+  </si>
+  <si>
+    <t>epredfimebale</t>
+  </si>
+  <si>
+    <t>gepip</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>epr</t>
   </si>
   <si>
     <t>nu</t>
   </si>
   <si>
+    <t>rep</t>
+  </si>
+  <si>
     <t>ed</t>
   </si>
   <si>
-    <t>rep</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>tre</t>
-  </si>
-  <si>
-    <t>ifte</t>
-  </si>
-  <si>
-    <t>etr</t>
-  </si>
-  <si>
-    <t>voer</t>
-  </si>
-  <si>
-    <t>agh</t>
-  </si>
-  <si>
-    <t>ophi</t>
-  </si>
-  <si>
-    <t>ead</t>
-  </si>
-  <si>
-    <t>noi</t>
-  </si>
-  <si>
-    <t>ino</t>
-  </si>
-  <si>
-    <t>flu</t>
+    <t>ehka</t>
+  </si>
+  <si>
+    <t>efim</t>
+  </si>
+  <si>
+    <t>tmu</t>
+  </si>
+  <si>
+    <t>pti</t>
+  </si>
+  <si>
+    <t>gaa</t>
+  </si>
+  <si>
+    <t>swuy</t>
+  </si>
+  <si>
+    <t>fime</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>ulf</t>
+  </si>
+  <si>
+    <t>bale</t>
+  </si>
+  <si>
+    <t>elab</t>
   </si>
   <si>
     <t>oni</t>
   </si>
   <si>
-    <t>luf</t>
-  </si>
-  <si>
-    <t>aebl</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>dredeervo</t>
-  </si>
-  <si>
-    <t>urdeadeful</t>
-  </si>
-  <si>
-    <t>diret</t>
-  </si>
-  <si>
-    <t>kreretion</t>
-  </si>
-  <si>
-    <t>predoervo</t>
-  </si>
-  <si>
-    <t>iwhipoioner</t>
-  </si>
-  <si>
-    <t>unduadeful</t>
-  </si>
-  <si>
-    <t>dewet</t>
-  </si>
-  <si>
-    <t>esition</t>
-  </si>
-  <si>
-    <t>prerepion</t>
-  </si>
-  <si>
-    <t>predeervu</t>
-  </si>
-  <si>
-    <t>hatfulable</t>
-  </si>
-  <si>
-    <t>inhipeioner</t>
-  </si>
-  <si>
-    <t>undeideful</t>
-  </si>
-  <si>
-    <t>efitaon</t>
-  </si>
-  <si>
-    <t>preretiun</t>
-  </si>
-  <si>
-    <t>hagfumable</t>
-  </si>
-  <si>
-    <t>inhipoeoner</t>
-  </si>
-  <si>
-    <t>undeadefel</t>
-  </si>
-  <si>
-    <t>hagfulabre</t>
-  </si>
-  <si>
-    <t>inhipoionen</t>
+    <t>irunpit</t>
+  </si>
+  <si>
+    <t>hredeimfeable</t>
+  </si>
+  <si>
+    <t>onakeh</t>
+  </si>
+  <si>
+    <t>freumtful</t>
+  </si>
+  <si>
+    <t>inulpit</t>
+  </si>
+  <si>
+    <t>dawuyserion</t>
+  </si>
+  <si>
+    <t>preheimfeable</t>
+  </si>
+  <si>
+    <t>unekeh</t>
+  </si>
+  <si>
+    <t>imfoer</t>
+  </si>
+  <si>
+    <t>preumhful</t>
+  </si>
+  <si>
+    <t>inunbit</t>
+  </si>
+  <si>
+    <t>agofulable</t>
+  </si>
+  <si>
+    <t>dewiyserion</t>
+  </si>
+  <si>
+    <t>predeimfiable</t>
+  </si>
+  <si>
+    <t>pipes</t>
+  </si>
+  <si>
+    <t>imfeey</t>
+  </si>
+  <si>
+    <t>preumtfuy</t>
+  </si>
+  <si>
+    <t>agafurable</t>
+  </si>
+  <si>
+    <t>dewuysarion</t>
+  </si>
+  <si>
+    <t>predeimfeatle</t>
+  </si>
+  <si>
+    <t>agafulabwe</t>
+  </si>
+  <si>
+    <t>dewuyseriin</t>
   </si>
   <si>
     <t>Prefix</t>
@@ -325,16 +334,13 @@
     <t>all</t>
   </si>
   <si>
-    <t>dedod</t>
-  </si>
-  <si>
-    <t>ert</t>
-  </si>
-  <si>
-    <t>lerh</t>
-  </si>
-  <si>
-    <t>xul</t>
+    <t>tife</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>sem</t>
   </si>
   <si>
     <t>Suffix</t>
@@ -707,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,210 +789,225 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
-      </c>
-      <c r="U3">
+        <v>87</v>
+      </c>
+      <c r="R3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
         <v>1</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
       </c>
       <c r="K4" t="s">
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="s">
-        <v>92</v>
-      </c>
-      <c r="T4">
+        <v>88</v>
+      </c>
+      <c r="R4" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4">
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="W4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>89</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
         <v>75</v>
       </c>
-      <c r="P6" t="s">
-        <v>88</v>
+      <c r="N6" t="s">
+        <v>77</v>
       </c>
       <c r="Q6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R6" t="s">
         <v>96</v>
       </c>
-      <c r="U6">
-        <v>2</v>
+      <c r="S6" t="s">
+        <v>99</v>
       </c>
       <c r="V6">
         <v>2</v>
@@ -994,123 +1015,158 @@
       <c r="W6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
         <v>97</v>
       </c>
-      <c r="T7">
+      <c r="S7" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7">
         <v>1</v>
       </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q8" t="s">
-        <v>95</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="R8" t="s">
+        <v>98</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1128,21 +1184,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>0.35</v>
@@ -1150,10 +1206,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>0.25</v>
@@ -1161,10 +1217,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -1172,10 +1228,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>0.2</v>
@@ -1201,52 +1257,52 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1264,21 +1320,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2">
         <v>0.35</v>
@@ -1286,10 +1342,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>0.25</v>
@@ -1297,10 +1353,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -1311,7 +1367,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>0.2</v>

--- a/Experimental Design/Design.xlsx
+++ b/Experimental Design/Design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>Token</t>
   </si>
@@ -91,25 +91,28 @@
     <t>ChangedIndexS2</t>
   </si>
   <si>
-    <t>unakeh</t>
-  </si>
-  <si>
-    <t>imfeer</t>
-  </si>
-  <si>
-    <t>preumtful</t>
-  </si>
-  <si>
-    <t>inunpit</t>
-  </si>
-  <si>
-    <t>agafulable</t>
-  </si>
-  <si>
-    <t>dewuyserion</t>
-  </si>
-  <si>
-    <t>predeimfeable</t>
+    <t>rerg</t>
+  </si>
+  <si>
+    <t>unegah</t>
+  </si>
+  <si>
+    <t>ehuable</t>
+  </si>
+  <si>
+    <t>derergion</t>
+  </si>
+  <si>
+    <t>deprehidad</t>
+  </si>
+  <si>
+    <t>gagefulable</t>
+  </si>
+  <si>
+    <t>insopioner</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t>pr</t>
@@ -133,193 +136,184 @@
     <t>pprs</t>
   </si>
   <si>
-    <t>r</t>
+    <t>de</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>pre</t>
   </si>
   <si>
     <t>in</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>akeh</t>
-  </si>
-  <si>
-    <t>imfe</t>
-  </si>
-  <si>
-    <t>umt</t>
-  </si>
-  <si>
-    <t>pit</t>
-  </si>
-  <si>
-    <t>aga</t>
-  </si>
-  <si>
-    <t>wuys</t>
-  </si>
-  <si>
-    <t>pipeg</t>
+    <t>egah</t>
+  </si>
+  <si>
+    <t>ehu</t>
+  </si>
+  <si>
+    <t>hidad</t>
+  </si>
+  <si>
+    <t>gage</t>
+  </si>
+  <si>
+    <t>sop</t>
+  </si>
+  <si>
+    <t>able</t>
+  </si>
+  <si>
+    <t>ion</t>
+  </si>
+  <si>
+    <t>ful</t>
   </si>
   <si>
     <t>er</t>
   </si>
   <si>
-    <t>ful</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>ion</t>
-  </si>
-  <si>
-    <t>nuehka</t>
-  </si>
-  <si>
-    <t>efimre</t>
-  </si>
-  <si>
-    <t>reptmuulf</t>
-  </si>
-  <si>
-    <t>ninupti</t>
-  </si>
-  <si>
-    <t>gaaulfelab</t>
-  </si>
-  <si>
-    <t>edswuyreoni</t>
-  </si>
-  <si>
-    <t>epredfimebale</t>
-  </si>
-  <si>
-    <t>gepip</t>
+    <t>rreg</t>
+  </si>
+  <si>
+    <t>nuegha</t>
+  </si>
+  <si>
+    <t>uehleba</t>
+  </si>
+  <si>
+    <t>edrgreoin</t>
+  </si>
+  <si>
+    <t>ederpddhia</t>
+  </si>
+  <si>
+    <t>ggaelfuelba</t>
+  </si>
+  <si>
+    <t>niospoinre</t>
+  </si>
+  <si>
+    <t>edniaheglabe</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>erp</t>
   </si>
   <si>
     <t>ni</t>
   </si>
   <si>
-    <t>epr</t>
-  </si>
-  <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>rep</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>ehka</t>
-  </si>
-  <si>
-    <t>efim</t>
-  </si>
-  <si>
-    <t>tmu</t>
-  </si>
-  <si>
-    <t>pti</t>
-  </si>
-  <si>
-    <t>gaa</t>
-  </si>
-  <si>
-    <t>swuy</t>
-  </si>
-  <si>
-    <t>fime</t>
+    <t>egha</t>
+  </si>
+  <si>
+    <t>ueh</t>
+  </si>
+  <si>
+    <t>rgre</t>
+  </si>
+  <si>
+    <t>ddhia</t>
+  </si>
+  <si>
+    <t>ggae</t>
+  </si>
+  <si>
+    <t>osp</t>
+  </si>
+  <si>
+    <t>aheg</t>
+  </si>
+  <si>
+    <t>leba</t>
+  </si>
+  <si>
+    <t>oin</t>
+  </si>
+  <si>
+    <t>lfu</t>
+  </si>
+  <si>
+    <t>labe</t>
+  </si>
+  <si>
+    <t>elba</t>
   </si>
   <si>
     <t>re</t>
   </si>
   <si>
-    <t>ulf</t>
-  </si>
-  <si>
-    <t>bale</t>
-  </si>
-  <si>
-    <t>elab</t>
-  </si>
-  <si>
-    <t>oni</t>
-  </si>
-  <si>
-    <t>irunpit</t>
-  </si>
-  <si>
-    <t>hredeimfeable</t>
-  </si>
-  <si>
-    <t>onakeh</t>
-  </si>
-  <si>
-    <t>freumtful</t>
-  </si>
-  <si>
-    <t>inulpit</t>
-  </si>
-  <si>
-    <t>dawuyserion</t>
-  </si>
-  <si>
-    <t>preheimfeable</t>
-  </si>
-  <si>
-    <t>unekeh</t>
-  </si>
-  <si>
-    <t>imfoer</t>
-  </si>
-  <si>
-    <t>preumhful</t>
-  </si>
-  <si>
-    <t>inunbit</t>
-  </si>
-  <si>
-    <t>agofulable</t>
-  </si>
-  <si>
-    <t>dewiyserion</t>
-  </si>
-  <si>
-    <t>predeimfiable</t>
-  </si>
-  <si>
-    <t>pipes</t>
-  </si>
-  <si>
-    <t>imfeey</t>
-  </si>
-  <si>
-    <t>preumtfuy</t>
-  </si>
-  <si>
-    <t>agafurable</t>
-  </si>
-  <si>
-    <t>dewuysarion</t>
-  </si>
-  <si>
-    <t>predeimfeatle</t>
-  </si>
-  <si>
-    <t>agafulabwe</t>
-  </si>
-  <si>
-    <t>dewuyseriin</t>
+    <t>seprehidad</t>
+  </si>
+  <si>
+    <t>dainegahable</t>
+  </si>
+  <si>
+    <t>ulegah</t>
+  </si>
+  <si>
+    <t>durergion</t>
+  </si>
+  <si>
+    <t>deprohidad</t>
+  </si>
+  <si>
+    <t>onsopioner</t>
+  </si>
+  <si>
+    <t>deanegahable</t>
+  </si>
+  <si>
+    <t>rirg</t>
+  </si>
+  <si>
+    <t>unegad</t>
+  </si>
+  <si>
+    <t>ihuable</t>
+  </si>
+  <si>
+    <t>derercion</t>
+  </si>
+  <si>
+    <t>deprehidid</t>
+  </si>
+  <si>
+    <t>gigefulable</t>
+  </si>
+  <si>
+    <t>ingopioner</t>
+  </si>
+  <si>
+    <t>deinogahable</t>
+  </si>
+  <si>
+    <t>ehuabla</t>
+  </si>
+  <si>
+    <t>derergian</t>
+  </si>
+  <si>
+    <t>gagegulable</t>
+  </si>
+  <si>
+    <t>insopianer</t>
+  </si>
+  <si>
+    <t>deinegahablu</t>
+  </si>
+  <si>
+    <t>gagefulabla</t>
+  </si>
+  <si>
+    <t>insopionem</t>
   </si>
   <si>
     <t>Prefix</t>
@@ -334,13 +328,16 @@
     <t>all</t>
   </si>
   <si>
-    <t>tife</t>
-  </si>
-  <si>
-    <t>mat</t>
-  </si>
-  <si>
-    <t>sem</t>
+    <t>emso</t>
+  </si>
+  <si>
+    <t>els</t>
+  </si>
+  <si>
+    <t>yot</t>
+  </si>
+  <si>
+    <t>ter</t>
   </si>
   <si>
     <t>Suffix</t>
@@ -800,276 +797,240 @@
       <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R3" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
       </c>
       <c r="V3">
         <v>3</v>
       </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R4" t="s">
-        <v>95</v>
-      </c>
-      <c r="U4">
+        <v>92</v>
+      </c>
+      <c r="V4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
       </c>
       <c r="H5">
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>72</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="R5" t="s">
+        <v>93</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
         <v>77</v>
       </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
       <c r="Q6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R6" t="s">
-        <v>96</v>
-      </c>
-      <c r="S6" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="X6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" t="s">
         <v>97</v>
-      </c>
-      <c r="S7" t="s">
-        <v>100</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1078,95 +1039,131 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
         <v>76</v>
       </c>
-      <c r="O8" t="s">
-        <v>80</v>
-      </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" t="s">
         <v>98</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>83</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="R9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1184,21 +1181,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>0.35</v>
@@ -1206,10 +1203,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>0.25</v>
@@ -1217,10 +1214,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -1228,10 +1225,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>0.2</v>
@@ -1257,17 +1254,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1277,32 +1274,32 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1320,21 +1317,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>0.35</v>
@@ -1342,10 +1339,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>0.25</v>
@@ -1353,10 +1350,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -1364,10 +1361,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>0.2</v>

--- a/Experimental Design/Design.xlsx
+++ b/Experimental Design/Design.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delia\OneDrive\Desktop\Morphemes\Morphemes\Experimental Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0766C8-1733-4CC7-884F-21E0647583B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="Roots" sheetId="3" r:id="rId3"/>
     <sheet name="Suffixes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
   <si>
     <t>Token</t>
   </si>
@@ -353,13 +359,19 @@
   </si>
   <si>
     <t>adjective</t>
+  </si>
+  <si>
+    <t>PrefixPOS2</t>
+  </si>
+  <si>
+    <t>SuffixPOS2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +434,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -468,7 +488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,9 +520,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,6 +572,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -709,14 +765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -816,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -854,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -892,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -942,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -992,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1042,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1104,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1172,14 +1228,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
@@ -1187,50 +1248,65 @@
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>102</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5">
         <v>0.2</v>
       </c>
     </row>
@@ -1240,64 +1316,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -1308,14 +1384,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -1323,50 +1401,65 @@
         <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>110</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5">
         <v>0.2</v>
       </c>
     </row>
